--- a/document/excel_upload_자료/TBL_EXP_BUYER_DETAIL.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_BUYER_DETAIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E587ACE-05D0-4FD8-8CF8-01DCC239009C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8456503B-13E0-4200-8B3A-682C015AEFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,47 +81,141 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>TBL_EXP_BUYER_DETAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설립일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25FC</t>
+  </si>
+  <si>
+    <t>이오에프씨 주식회사(25FC CO., LTD.)</t>
+  </si>
+  <si>
+    <t>2019.06.11</t>
+  </si>
+  <si>
+    <t>이성욱</t>
+  </si>
+  <si>
+    <t>1976.02.11</t>
+  </si>
+  <si>
+    <t>일반법인</t>
+  </si>
+  <si>
+    <t>12월</t>
+  </si>
+  <si>
+    <t>(M71531) 경영 컨설팅업</t>
+  </si>
+  <si>
+    <t>부산광역시 해운대구 센텀5로</t>
+  </si>
+  <si>
+    <t>2023.08.31</t>
+  </si>
+  <si>
     <t>BUYER_ID</t>
-  </si>
-  <si>
-    <t>TBL_EXP_BUYER_DETAIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>COMPANY_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ESTABLISHMENT_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OWNER_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OWNER_BIRTHDAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>COMPANY_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SETTLEMENT_MONTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EMPLOYEE_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BUSINESS_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ADDRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>COMPANY_CERT_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INDUSTRY_ESTATE_STATUS</t>
-  </si>
-  <si>
-    <t>BUSINESS_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표이사 생년월일(나이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상시근로자수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소(도로명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업인증현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업재산권현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,20 +430,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,7 +782,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -697,24 +791,25 @@
     <col min="2" max="2" width="35.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.25" customWidth="1"/>
     <col min="11" max="11" width="24.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -742,100 +837,138 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>22</v>
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
+      <c r="E5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="H6" s="9"/>
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="H10" s="9"/>

--- a/document/excel_upload_자료/TBL_EXP_BUYER_DETAIL.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_BUYER_DETAIL.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8456503B-13E0-4200-8B3A-682C015AEFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865142BA-D6FC-475C-BCD4-4F85B10C5D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="1800" yWindow="1170" windowWidth="20970" windowHeight="11880" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -778,28 +778,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842E971D-139C-49FB-9052-11C1417F35EE}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="44" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.25" customWidth="1"/>
-    <col min="11" max="11" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="34.5" customHeight="1">
@@ -970,15 +970,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="H12" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
